--- a/sample-expense.xlsx
+++ b/sample-expense.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KinZhong\Downloads\expenses-script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KinZhong\Downloads\expense-report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B68EBB5-1287-4429-B844-5BBCC60547B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D7335-6E30-495F-8429-BAED6D7BD602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Billing Cycle</t>
+  </si>
+  <si>
+    <t>Every 12</t>
   </si>
 </sst>
 </file>
@@ -569,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,8 +638,8 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11">
-        <v>12</v>
+      <c r="I3" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -654,8 +657,8 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11">
-        <v>12</v>
+      <c r="I4" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -671,8 +674,8 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="11">
-        <v>12</v>
+      <c r="I5" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">

--- a/sample-expense.xlsx
+++ b/sample-expense.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KinZhong\Downloads\expense-report-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewk\Downloads\New folder\expense-report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D7335-6E30-495F-8429-BAED6D7BD602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA89053-CF44-4E36-9217-A5042FC98570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Credit Card Details</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Every 12</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -287,6 +287,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,25 +575,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="5"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
@@ -600,11 +603,11 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="H1" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -616,15 +619,15 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -639,12 +642,12 @@
         <v>6</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -652,16 +655,16 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -675,10 +678,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -689,7 +692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -697,75 +700,75 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>34</v>
       </c>
@@ -775,7 +778,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44055</v>
       </c>
@@ -808,8 +811,8 @@
       <c r="C23" s="4">
         <v>10</v>
       </c>
-      <c r="D23" t="s">
-        <v>35</v>
+      <c r="D23" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -818,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44085</v>
       </c>
@@ -828,8 +831,8 @@
       <c r="C24" s="4">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
-        <v>35</v>
+      <c r="D24" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -838,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44086</v>
       </c>
@@ -848,8 +851,8 @@
       <c r="C25" s="4">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
+      <c r="D25" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -858,7 +861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44055</v>
       </c>
@@ -868,17 +871,17 @@
       <c r="C26" s="4">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>35</v>
+      <c r="D26" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44085</v>
       </c>
@@ -888,17 +891,17 @@
       <c r="C27" s="4">
         <v>20</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
+      <c r="D27" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44087</v>
       </c>
@@ -908,17 +911,17 @@
       <c r="C28" s="4">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
-        <v>35</v>
+      <c r="D28" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44055</v>
       </c>
@@ -928,8 +931,8 @@
       <c r="C29" s="4">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
-        <v>35</v>
+      <c r="D29" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -938,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44085</v>
       </c>
@@ -948,8 +951,8 @@
       <c r="C30" s="4">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
-        <v>35</v>
+      <c r="D30" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -958,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44087</v>
       </c>
@@ -968,8 +971,8 @@
       <c r="C31" s="4">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
-        <v>35</v>
+      <c r="D31" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -978,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D180" s="3"/>
       <c r="F180" s="5"/>
     </row>
